--- a/calibration/adc/example_LTC2512-24_antialiasing_filter_200kHz_df4.xlsx
+++ b/calibration/adc/example_LTC2512-24_antialiasing_filter_200kHz_df4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\selene.fregosi\Documents\GitHub\PAM-glider-CalCurCEAS\noise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\selene.fregosi\Documents\GitHub\glider-lab\calibration\adc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE863DBB-35EB-4752-ACEE-B7C11B5FC815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5371D91B-EF6D-4A2A-A9B8-CEF11E07F2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11175" yWindow="1965" windowWidth="15675" windowHeight="13950" xr2:uid="{EB5A5953-DB80-49E2-8285-6CE88E2435F2}"/>
+    <workbookView xWindow="885" yWindow="1260" windowWidth="25875" windowHeight="13215" xr2:uid="{EB5A5953-DB80-49E2-8285-6CE88E2435F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
@@ -1385,7 +1385,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
